--- a/figures/supplement/Table SX.xlsx
+++ b/figures/supplement/Table SX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejlundgren/Dropbox/Projects/Meta_Megafauna/ecosystem_metamega/figures/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E33D486E-6979-4544-87A4-0063A5E0AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3BC8EA9E-FD90-4B46-A816-829BE035ACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{AC6E4271-0363-5C49-85F8-C6CB260273CD}"/>
   </bookViews>
